--- a/accounts and comment/comments.xlsx
+++ b/accounts and comment/comments.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">ye sebeawi eredata le tegeray hezeb endiders eyaderegachew yalacheweten teret alemadenek ayechalem mekeniyatum be yetegnawem akababy endezi aynet erdata siyasefeleg feteno derashenetachewen eyasayachew endehone nw ehe miyasayen </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t xml:space="preserve">Nice </t>
@@ -31,16 +30,16 @@
     <t>cool</t>
   </si>
   <si>
-    <t>wow ferenj</t>
+    <t xml:space="preserve">wow ferenj</t>
   </si>
   <si>
     <t>what!</t>
   </si>
   <si>
-    <t>Thats a suprise</t>
-  </si>
-  <si>
-    <t>nice betam</t>
+    <t xml:space="preserve">Thats a suprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nice betam</t>
   </si>
   <si>
     <t>huuuuuuu</t>
@@ -70,14 +69,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,39 +96,317 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -167,73 +442,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -241,7 +456,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -261,9 +476,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -284,11 +499,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -297,13 +512,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +528,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,30 +546,19 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -376,11 +580,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -394,148 +596,185 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="23.290714285714284"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+    <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+    <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+    <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+    <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+    <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+    <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+    <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>